--- a/data/input/absenteeism_data_24.xlsx
+++ b/data/input/absenteeism_data_24.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42007</v>
+        <v>91758</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana Luiza Jesus</t>
+          <t>Olivia Nascimento</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,27 +494,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45088</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>9532.790000000001</v>
+        <v>9788.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>78915</v>
+        <v>89797</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Srta. Manuela da Cunha</t>
+          <t>Ana Luiza Moura</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,90 +523,90 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45084</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>9442</v>
+        <v>9739.379999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14395</v>
+        <v>22214</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isaac Duarte</t>
+          <t>Eloah Viana</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45106</v>
+        <v>45089</v>
       </c>
       <c r="G4" t="n">
-        <v>6480.7</v>
+        <v>9023.959999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10958</v>
+        <v>9712</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Renan Nascimento</t>
+          <t>Joana Silveira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45101</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>4552.49</v>
+        <v>6599.87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>574</v>
+        <v>52144</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Heitor Vieira</t>
+          <t>Marina Jesus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -616,74 +616,74 @@
         <v>45089</v>
       </c>
       <c r="G6" t="n">
-        <v>9436.030000000001</v>
+        <v>6427.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80684</v>
+        <v>61007</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maria Vitória da Mata</t>
+          <t>Ana Beatriz Souza</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45082</v>
+        <v>45094</v>
       </c>
       <c r="G7" t="n">
-        <v>11048.11</v>
+        <v>2875.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16765</v>
+        <v>37333</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Clara Costela</t>
+          <t>Fernando Cavalcanti</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45106</v>
+        <v>45091</v>
       </c>
       <c r="G8" t="n">
-        <v>11050.94</v>
+        <v>3560.97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>35413</v>
+        <v>8384</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Isabella Gomes</t>
+          <t>Henrique Jesus</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45086</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>9330.469999999999</v>
+        <v>3091.94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>62363</v>
+        <v>15700</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Giovanna Peixoto</t>
+          <t>Dr. Erick Duarte</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="G10" t="n">
-        <v>6674.45</v>
+        <v>7965.55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68184</v>
+        <v>39606</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Letícia Martins</t>
+          <t>Ana Laura Fogaça</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45100</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>5086.23</v>
+        <v>9305.459999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_24.xlsx
+++ b/data/input/absenteeism_data_24.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91758</v>
+        <v>72525</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Olivia Nascimento</t>
+          <t>Dra. Luiza Duarte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45081</v>
+        <v>45091</v>
       </c>
       <c r="G2" t="n">
-        <v>9788.5</v>
+        <v>12158.65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89797</v>
+        <v>79511</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Luiza Moura</t>
+          <t>Davi Luiz Santos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -526,82 +526,82 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45094</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>9739.379999999999</v>
+        <v>3167.51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22214</v>
+        <v>13622</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eloah Viana</t>
+          <t>Ana Carolina da Rocha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45089</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>9023.959999999999</v>
+        <v>5868.65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9712</v>
+        <v>77458</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Joana Silveira</t>
+          <t>Amanda Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45089</v>
+        <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>6599.87</v>
+        <v>4120.79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>52144</v>
+        <v>48359</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marina Jesus</t>
+          <t>Leonardo Ramos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,114 +610,114 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>6427.09</v>
+        <v>8572.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>61007</v>
+        <v>47994</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ana Beatriz Souza</t>
+          <t>Dra. Emanuelly Correia</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45094</v>
+        <v>45081</v>
       </c>
       <c r="G7" t="n">
-        <v>2875.26</v>
+        <v>5559.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>37333</v>
+        <v>29335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fernando Cavalcanti</t>
+          <t>Agatha Barbosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="G8" t="n">
-        <v>3560.97</v>
+        <v>9761.83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8384</v>
+        <v>57370</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Henrique Jesus</t>
+          <t>Dra. Emilly Duarte</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>3091.94</v>
+        <v>2908.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15700</v>
+        <v>53093</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Erick Duarte</t>
+          <t>Maysa Porto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45084</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>7965.55</v>
+        <v>4752.51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39606</v>
+        <v>38707</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Laura Fogaça</t>
+          <t>Sra. Ana Julia Ferreira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45099</v>
+        <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>9305.459999999999</v>
+        <v>3365.24</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_24.xlsx
+++ b/data/input/absenteeism_data_24.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>72525</v>
+        <v>93150</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dra. Luiza Duarte</t>
+          <t>Joaquim Teixeira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45091</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>12158.65</v>
+        <v>5081.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79511</v>
+        <v>82764</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Davi Luiz Santos</t>
+          <t>Dr. Augusto Nunes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,249 +519,249 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="G3" t="n">
-        <v>3167.51</v>
+        <v>7073.51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13622</v>
+        <v>90683</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Carolina da Rocha</t>
+          <t>Rodrigo Nunes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45091</v>
+        <v>45106</v>
       </c>
       <c r="G4" t="n">
-        <v>5868.65</v>
+        <v>4496.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>77458</v>
+        <v>47399</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amanda Costa</t>
+          <t>Dr. Carlos Eduardo da Cruz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45084</v>
+        <v>45083</v>
       </c>
       <c r="G5" t="n">
-        <v>4120.79</v>
+        <v>10256.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>48359</v>
+        <v>19097</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Leonardo Ramos</t>
+          <t>Isabelly Souza</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45089</v>
       </c>
       <c r="G6" t="n">
-        <v>8572.92</v>
+        <v>2988.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>47994</v>
+        <v>17503</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dra. Emanuelly Correia</t>
+          <t>Srta. Olivia da Mata</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>5559.05</v>
+        <v>12067.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>29335</v>
+        <v>4830</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Agatha Barbosa</t>
+          <t>Benjamin da Cruz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45092</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>9761.83</v>
+        <v>9395.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>57370</v>
+        <v>52402</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dra. Emilly Duarte</t>
+          <t>Ana Julia Souza</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45089</v>
+        <v>45079</v>
       </c>
       <c r="G9" t="n">
-        <v>2908.59</v>
+        <v>11790.42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>53093</v>
+        <v>69511</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maysa Porto</t>
+          <t>Sr. Diogo Ferreira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45094</v>
+        <v>45103</v>
       </c>
       <c r="G10" t="n">
-        <v>4752.51</v>
+        <v>6794.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>38707</v>
+        <v>35893</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sra. Ana Julia Ferreira</t>
+          <t>Maria Luiza Mendes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="G11" t="n">
-        <v>3365.24</v>
+        <v>11587.83</v>
       </c>
     </row>
   </sheetData>
